--- a/aichan/552851218295821516_2021-07-29_19-45-05.xlsx
+++ b/aichan/552851218295821516_2021-07-29_19-45-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5135947253</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:02:20</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44420.45995370371</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-09 15:48:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44417.65834490741</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>5032675416</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-07 11:27:01</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44415.47709490741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-07 11:24:24</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44415.47527777778</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -831,10 +839,8 @@
           <t>5025202365</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-04 15:28:17</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44412.6446412037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>5061621351</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-03 18:16:10</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44411.76122685185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-02 21:02:21</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44410.87663194445</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>5054329796</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-02 20:02:34</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44410.83511574074</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>5053469098</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-02 18:18:37</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44410.76292824074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1198,10 +1196,8 @@
           <t>5031447111</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-02 18:17:45</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44410.76232638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1261,10 +1257,8 @@
           <t>5039516404</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-02 18:17:04</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44410.76185185185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1324,10 +1318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-02 12:18:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44410.51291666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1418,10 +1410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-02 01:38:02</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44410.06807870371</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1485,10 +1475,8 @@
           <t>5043941799</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:18:45</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44409.59635416666</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1556,10 +1544,8 @@
           <t>5039516404</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-31 22:53:33</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44408.95385416667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1635,10 +1621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:31:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44408.81353009259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1724,10 +1708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:46:37</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44408.78237268519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1791,10 +1773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:35:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44408.73326388889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1866,10 +1846,8 @@
           <t>5029472081</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44408.50184027778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1933,10 +1911,8 @@
           <t>5029472081</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:56</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44408.50064814815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2000,10 +1976,8 @@
           <t>5029472081</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:59:47</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44408.49984953704</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2067,10 +2041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:47:01</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44408.4909837963</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2134,10 +2106,8 @@
           <t>5029472081</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:45:52</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44408.49018518518</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2213,10 +2183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-31 10:42:21</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44408.44607638889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2292,10 +2260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-31 10:41:18</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44408.44534722222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2381,10 +2347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-31 10:24:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44408.4340162037</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2452,10 +2416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:53:11</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44408.3702662037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2527,10 +2489,8 @@
           <t>5032878445</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-31 04:02:50</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44408.16863425926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2598,10 +2558,8 @@
           <t>5032797734</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-31 03:07:11</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44408.12998842593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2673,10 +2631,8 @@
           <t>5021813318</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:57:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44408.12320601852</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2752,10 +2708,8 @@
           <t>5032675416</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:16:00</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44408.09444444445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2831,10 +2785,8 @@
           <t>5032525473</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-31 01:33:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44408.06460648148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2910,10 +2862,8 @@
           <t>5031447111</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:54:46</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44407.95469907407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2973,10 +2923,8 @@
           <t>5031424604</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:52:27</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44407.95309027778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3036,10 +2984,8 @@
           <t>5030005792</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:18:21</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44407.92940972222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3103,10 +3049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-30 21:22:39</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44407.89072916667</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3182,10 +3126,8 @@
           <t>5024733498</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:43:13</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44407.8633449074</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3253,10 +3195,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:33:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44407.85665509259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3320,10 +3260,8 @@
           <t>5030005792</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:08:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44407.83918981482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3387,10 +3325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:06:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44407.83783564815</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3458,10 +3394,8 @@
           <t>5030005792</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:03:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44407.83603009259</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3525,10 +3459,8 @@
           <t>5029993319</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-30 20:02:55</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44407.8353587963</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3592,10 +3524,8 @@
           <t>5025741933</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:05:44</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44407.79564814815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3659,10 +3589,8 @@
           <t>5029504536</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:04:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44407.79490740741</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3726,10 +3654,8 @@
           <t>5029472081</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:00:34</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44407.79206018519</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3789,10 +3715,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:50:28</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44407.7850462963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3856,10 +3780,8 @@
           <t>5028928138</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:58:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44407.74892361111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3935,10 +3857,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:16:01</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44407.71945601852</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4006,10 +3926,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:15:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44407.71917824074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4077,10 +3995,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:14:39</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44407.71850694445</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4148,10 +4064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:25:05</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44407.60075231481</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4227,10 +4141,8 @@
           <t>5027441805</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:24:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44407.60045138889</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4306,10 +4218,8 @@
           <t>5027277308</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-30 14:00:09</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44407.5834375</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4381,10 +4291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:56:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44407.58115740741</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4460,10 +4368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:18:27</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44407.55447916667</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4535,10 +4441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:54:02</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44407.53752314814</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4610,10 +4514,8 @@
           <t>5026556188</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:26:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44407.51806712963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4681,10 +4583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-30 12:15:43</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44407.51091435185</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4760,10 +4660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-30 11:58:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44407.4987962963</v>
       </c>
       <c r="I60" t="n">
         <v>5</v>
@@ -4835,10 +4733,8 @@
           <t>5021762388</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:36:18</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44407.441875</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4914,10 +4810,8 @@
           <t>5025741933</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:29:50</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44407.43738425926</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4989,10 +4883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:02:33</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44407.4184375</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5060,10 +4952,8 @@
           <t>5025549833</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:57:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44407.41509259259</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5135,10 +5025,8 @@
           <t>5025449128</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:39:58</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44407.40275462963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5206,10 +5094,8 @@
           <t>5025447641</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:39:07</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44407.40216435185</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5277,10 +5163,8 @@
           <t>5025082420</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:29:19</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44407.3953587963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5348,10 +5232,8 @@
           <t>5025263924</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-30 09:04:07</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44407.3778587963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5419,10 +5301,8 @@
           <t>5025255009</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:59:21</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44407.37454861111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5486,10 +5366,8 @@
           <t>5025219068</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:54:34</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44407.37122685185</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5557,10 +5435,8 @@
           <t>5025216190</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:52:40</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44407.36990740741</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5628,10 +5504,8 @@
           <t>5025202365</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:50:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44407.36811342592</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5699,10 +5573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:47:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44407.36648148148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5770,10 +5642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:42:51</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44407.36309027778</v>
       </c>
       <c r="I74" t="n">
         <v>7</v>
@@ -5841,10 +5711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:41:29</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44407.3621412037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5908,10 +5776,8 @@
           <t>5025165892</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:40:08</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44407.3612037037</v>
       </c>
       <c r="I76" t="n">
         <v>5</v>
@@ -5983,10 +5849,8 @@
           <t>5025082420</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:33:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44407.35631944444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6063,10 +5927,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:30:24</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44407.35444444444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6142,10 +6004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:28:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44407.35314814815</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6217,10 +6077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:22:26</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44407.34891203704</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6284,10 +6142,8 @@
           <t>5025082420</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:21:19</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44407.34813657407</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6355,10 +6211,8 @@
           <t>5024944842</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:43:44</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44407.32203703704</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6430,10 +6284,8 @@
           <t>5024928155</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:37:10</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44407.31747685185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6501,10 +6353,8 @@
           <t>5024925824</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:34:49</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44407.31584490741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6572,10 +6422,8 @@
           <t>5022413832</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:20:51</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44407.30614583333</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6643,10 +6491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:47:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44407.28298611111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6714,10 +6560,8 @@
           <t>5024733498</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:17:08</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44407.26189814815</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6785,10 +6629,8 @@
           <t>5021887080</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:14:48</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44407.26027777778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6856,10 +6698,8 @@
           <t>5024755584</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:03:42</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44407.25256944444</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6931,10 +6771,8 @@
           <t>5024733498</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:03:07</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44407.25216435185</v>
       </c>
       <c r="I90" t="n">
         <v>11</v>
@@ -7006,10 +6844,8 @@
           <t>5024733549</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-30 05:45:04</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44407.23962962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7081,10 +6917,8 @@
           <t>5024733498</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-30 05:44:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44407.23952546297</v>
       </c>
       <c r="I92" t="n">
         <v>17</v>
@@ -7160,10 +6994,8 @@
           <t>5024685307</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-30 04:45:42</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44407.19840277778</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7239,10 +7071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-30 04:23:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44407.1827662037</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7310,10 +7140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:27:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44407.14403935185</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7381,10 +7209,8 @@
           <t>5024580825</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:25:51</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44407.14295138889</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7452,10 +7278,8 @@
           <t>5024577706</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-30 03:25:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44407.14243055556</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7523,10 +7347,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:58:50</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44407.12418981481</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7598,10 +7420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:58:17</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44407.12380787037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7669,10 +7489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:15:59</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44407.09443287037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7744,10 +7562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-30 02:06:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44407.08783564815</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7811,10 +7627,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:46:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44407.07395833333</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7886,10 +7700,8 @@
           <t>5024335817</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:46:25</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44407.07390046296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7957,10 +7769,8 @@
           <t>5024287048</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:35:22</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44407.06622685185</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8036,10 +7846,8 @@
           <t>5024267084</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:31:01</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44407.06320601852</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8103,10 +7911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:28:36</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44407.06152777778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8182,10 +7988,8 @@
           <t>5022046741</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:26:56</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44407.06037037037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8267,10 +8071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:17:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44407.05390046296</v>
       </c>
       <c r="I108" t="n">
         <v>6</v>
@@ -8334,10 +8136,8 @@
           <t>5023301854</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:16:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44407.05333333334</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8432,10 +8232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:08:13</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44407.04737268519</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8499,10 +8297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:07:27</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44407.04684027778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8578,10 +8374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:04:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44407.04465277777</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8657,10 +8451,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:04:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44407.04453703704</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8732,10 +8524,8 @@
           <t>5024098665</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:55:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44407.03835648148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8803,10 +8593,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:53:19</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44407.03702546296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8882,10 +8670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:48:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44407.03384259259</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8945,10 +8731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:39:42</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44407.02756944444</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9024,10 +8808,8 @@
           <t>5023933300</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:27:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44407.01907407407</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9099,10 +8881,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:21:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44407.01483796296</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9174,10 +8954,8 @@
           <t>5021677501</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:17:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44407.01243055556</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9245,10 +9023,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:16:12</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44407.01125</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9324,10 +9100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:15:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44407.01069444444</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9399,10 +9173,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:11:11</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44407.0077662037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9470,10 +9242,8 @@
           <t>5023805356</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:08:11</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44407.00568287037</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9541,10 +9311,8 @@
           <t>5023739456</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:07:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44407.00510416667</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9604,10 +9372,8 @@
           <t>5023783993</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:06:22</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44407.0044212963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9683,10 +9449,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:03:55</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44407.00271990741</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9754,10 +9518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:01:59</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44407.00137731482</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9833,10 +9595,8 @@
           <t>5023757284</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:01:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44407.00136574074</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9908,10 +9668,8 @@
           <t>5023755209</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:01:10</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44407.00081018519</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9984,10 +9742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:00:17</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44407.00019675926</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -10059,10 +9815,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:00:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44407.00001157408</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10130,10 +9884,8 @@
           <t>5023734845</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:59:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44406.99967592592</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10205,10 +9957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:53:37</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44406.99556712963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10284,10 +10034,8 @@
           <t>5023679532</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:52:43</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44406.99494212963</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10363,10 +10111,8 @@
           <t>5023676520</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:51:31</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44406.99410879629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10442,10 +10188,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:46:52</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44406.99087962963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10517,10 +10261,8 @@
           <t>5021887080</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:44:52</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44406.98949074074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10593,10 +10335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:44:50</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44406.98946759259</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10668,10 +10408,8 @@
           <t>5022110668</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:43:25</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44406.9884837963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10735,10 +10473,8 @@
           <t>5022110668</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:42:19</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44406.98771990741</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10811,10 +10547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:41:51</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44406.98739583333</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10890,10 +10624,8 @@
           <t>5023573012</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:39:02</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44406.98543981482</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10957,10 +10689,8 @@
           <t>5023566416</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:38:05</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44406.98478009259</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11032,10 +10762,8 @@
           <t>5023560416</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:36:55</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44406.98396990741</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11103,10 +10831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:36:33</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44406.98371527778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11182,10 +10908,8 @@
           <t>5023549016</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:36:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44406.98363425926</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11253,10 +10977,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:33:36</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44406.98166666667</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11329,10 +11051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:31:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44406.98013888889</v>
       </c>
       <c r="I149" t="n">
         <v>279</v>
@@ -11396,10 +11116,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:31:20</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44406.9800925926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11467,10 +11185,8 @@
           <t>5021813318</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:28:34</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44406.97817129629</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11538,10 +11254,8 @@
           <t>5023436660</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:22:20</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44406.97384259259</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11605,10 +11319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:18:43</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44406.97133101852</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11672,10 +11384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:17:39</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44406.97059027778</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11735,10 +11445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:17:31</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44406.97049768519</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11802,10 +11510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:17:24</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44406.97041666666</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11865,10 +11571,8 @@
           <t>5023315034</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:07:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44406.96381944444</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11936,10 +11640,8 @@
           <t>5023301854</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:06:46</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44406.96303240741</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12003,10 +11705,8 @@
           <t>5023281921</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:04:46</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44406.96164351852</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12070,10 +11770,8 @@
           <t>5023265147</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:02:38</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44406.96016203704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12145,10 +11843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:00:26</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44406.95863425926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12216,10 +11912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:55:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44406.95549768519</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12279,10 +11973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:55:04</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44406.95490740741</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12358,10 +12050,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:50:56</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44406.95203703704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12433,10 +12123,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:49:31</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44406.95105324074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12512,10 +12200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:49:07</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44406.95077546296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12583,10 +12269,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:49:06</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44406.95076388889</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12658,10 +12342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:47:44</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44406.94981481481</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12737,10 +12419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:41:19</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44406.9453587963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12804,10 +12484,8 @@
           <t>5023057659</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:40:06</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44406.94451388889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12871,10 +12549,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:39:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44406.94381944444</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12938,10 +12614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:38:22</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44406.94331018518</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13017,10 +12691,8 @@
           <t>5023037266</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:37:05</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44406.94241898148</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13084,10 +12756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:36:46</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44406.94219907407</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13156,10 +12826,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:36:06</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44406.94173611111</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13227,10 +12895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:28:48</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44406.93666666667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13302,10 +12968,8 @@
           <t>5022534226</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:28:47</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44406.93665509259</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13381,10 +13045,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:28:27</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44406.93642361111</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13460,10 +13122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:24:53</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44406.93394675926</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13523,10 +13183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:18:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44406.92980324074</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13586,10 +13244,8 @@
           <t>5022853004</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:17:19</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44406.92869212963</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13657,10 +13313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:12:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44406.92523148148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13724,10 +13378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:11:53</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44406.92491898148</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13799,10 +13451,8 @@
           <t>5021795199</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:07:28</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44406.92185185185</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13866,10 +13516,8 @@
           <t>5022367285</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:05:49</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44406.92070601852</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13945,10 +13593,8 @@
           <t>5022755120</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:05:49</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44406.92070601852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14020,10 +13666,8 @@
           <t>5021762388</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:05:28</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44406.92046296296</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14091,10 +13735,8 @@
           <t>5021897423</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:59:45</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44406.91649305556</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14162,10 +13804,8 @@
           <t>5022670570</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:56:58</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44406.91456018519</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14233,10 +13873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:56:08</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44406.91398148148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14304,10 +13942,8 @@
           <t>5022314845</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:54:57</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44406.91315972222</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14383,10 +14019,8 @@
           <t>5021881181</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:54:24</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44406.91277777778</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14459,10 +14093,8 @@
           <t>5022200213</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:53:56</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44406.91245370371</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14526,10 +14158,8 @@
           <t>5022534226</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:52:12</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44406.91125</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14597,10 +14227,8 @@
           <t>5022110668</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:50:10</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44406.90983796296</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14672,10 +14300,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:47:29</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44406.90797453704</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14743,10 +14369,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:46:31</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44406.90730324074</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14810,10 +14434,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:45:57</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44406.90690972222</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14877,10 +14499,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:44:43</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44406.90605324074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14944,10 +14564,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:43:54</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44406.90548611111</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15011,10 +14629,8 @@
           <t>5022534226</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:42:53</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44406.90478009259</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15090,10 +14706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:42:08</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44406.90425925926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15169,10 +14783,8 @@
           <t>5022521614</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:40:29</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44406.90311342593</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -15248,10 +14860,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:40:05</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44406.90283564815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15323,10 +14933,8 @@
           <t>5021653536</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:39:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44406.9027662037</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15394,10 +15002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:36:05</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44406.90005787037</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15457,10 +15063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:35:23</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44406.89957175926</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15536,10 +15140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:33:26</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44406.89821759259</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15599,10 +15201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:33:09</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44406.89802083333</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15678,10 +15278,8 @@
           <t>5022229111</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:41</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44406.89700231481</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15749,10 +15347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44406.89657407408</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15824,10 +15420,8 @@
           <t>5021915174</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:30:20</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44406.89606481481</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15903,10 +15497,8 @@
           <t>5021911193</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:30:10</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44406.89594907407</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15970,10 +15562,8 @@
           <t>5022414513</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:28:21</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44406.8946875</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16037,10 +15627,8 @@
           <t>5022413954</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:28:09</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44406.89454861111</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16112,10 +15700,8 @@
           <t>5022413832</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:28:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44406.89451388889</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16179,10 +15765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:27:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44406.89407407407</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16250,10 +15834,8 @@
           <t>5022411237</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:27:14</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44406.89391203703</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16325,10 +15907,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:26:59</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44406.89373842593</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16400,10 +15980,8 @@
           <t>5022410409</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:26:56</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44406.8937037037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16475,10 +16053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44406.89152777778</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16550,10 +16126,8 @@
           <t>5022191300</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:48</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44406.89152777778</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16625,10 +16199,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:23:13</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44406.89112268519</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16696,10 +16268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:22:48</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44406.89083333333</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16767,10 +16337,8 @@
           <t>5022367285</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:22:24</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44406.89055555555</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16847,10 +16415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:22:00</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44406.89027777778</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16918,10 +16484,8 @@
           <t>5022362316</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:21:37</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44406.89001157408</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -16997,10 +16561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:20:59</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44406.88957175926</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17076,10 +16638,8 @@
           <t>5021762388</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:20:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44406.88928240741</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17143,10 +16703,8 @@
           <t>5022170857</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:19:53</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44406.88880787037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17210,10 +16768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:19:49</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44406.88876157408</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17273,10 +16829,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:18:56</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44406.88814814815</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17352,10 +16906,8 @@
           <t>5022314845</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:16:44</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44406.88662037037</v>
       </c>
       <c r="I233" t="n">
         <v>14</v>
@@ -17423,10 +16975,8 @@
           <t>5022039346</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:16:05</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44406.88616898148</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17494,10 +17044,8 @@
           <t>5022292327</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:15:20</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44406.88564814815</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17574,10 +17122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:14:57</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44406.88538194444</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17649,10 +17195,8 @@
           <t>5022310159</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:14:57</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44406.88538194444</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17716,10 +17260,8 @@
           <t>5022200213</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:14:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44406.88527777778</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17795,10 +17337,8 @@
           <t>5022297967</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:14:07</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44406.88480324074</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17874,10 +17414,8 @@
           <t>5022292327</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:13:24</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44406.88430555556</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17945,10 +17483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:10:46</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44406.88247685185</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18020,10 +17556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:10:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44406.88232638889</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18095,10 +17629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44406.88032407407</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18170,10 +17702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:34</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44406.88025462963</v>
       </c>
       <c r="I244" t="n">
         <v>6</v>
@@ -18237,10 +17767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:06:35</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44406.87957175926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18312,10 +17840,8 @@
           <t>5022229111</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:06:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44406.87954861111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18383,10 +17909,8 @@
           <t>5021883391</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44406.87908564815</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18458,10 +17982,8 @@
           <t>5021883391</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:41</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44406.87894675926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18533,10 +18055,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:38</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44406.87891203703</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18608,10 +18128,8 @@
           <t>5022230370</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:26</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44406.87877314815</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18679,10 +18197,8 @@
           <t>5022230045</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:19</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44406.87869212963</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18750,10 +18266,8 @@
           <t>5021813318</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:07</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44406.87855324074</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18829,10 +18343,8 @@
           <t>5022222223</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:04:21</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44406.87802083333</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18904,10 +18416,8 @@
           <t>5021786241</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:03:15</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44406.87725694444</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18983,10 +18493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:49</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44406.87626157407</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19058,10 +18566,8 @@
           <t>5022200213</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:48</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44406.87625</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19133,10 +18639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:21</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44406.8759375</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19200,10 +18704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:01:19</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44406.87591435185</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19271,10 +18773,8 @@
           <t>5022187752</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:00:56</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44406.87564814815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19342,10 +18842,8 @@
           <t>5022191300</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:00:31</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44406.87535879629</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19417,10 +18915,8 @@
           <t>5022039346</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:59:47</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44406.87484953704</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19488,10 +18984,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:59:07</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44406.87438657408</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19563,10 +19057,8 @@
           <t>5022170857</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:58:27</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44406.87392361111</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19634,10 +19126,8 @@
           <t>5022166577</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:58:13</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44406.87376157408</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19705,10 +19195,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:58:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44406.87373842593</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19776,10 +19264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:58:01</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44406.87362268518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19851,10 +19337,8 @@
           <t>5022163155</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:57:49</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44406.8734837963</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19930,10 +19414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:57:03</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44406.87295138889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20009,10 +19491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:56:43</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44406.87271990741</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20084,10 +19564,8 @@
           <t>5022151388</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:56:15</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44406.87239583334</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20159,10 +19637,8 @@
           <t>5021786241</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:56:07</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44406.87230324074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20239,10 +19715,8 @@
           <t>5022006630</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:55:20</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44406.87175925926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20314,10 +19788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:54:08</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44406.87092592593</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20396,10 +19868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:53:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44406.87043981482</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20467,10 +19937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:53:12</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44406.87027777778</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20538,10 +20006,8 @@
           <t>5022114690</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:52:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44406.86979166666</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20605,10 +20071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:52:26</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44406.86974537037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20676,10 +20140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:52:24</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44406.86972222223</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20743,10 +20205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:52:19</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44406.86966435185</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20814,10 +20274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:51:53</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44406.86936342593</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -20893,10 +20351,8 @@
           <t>5022112203</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:51:34</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44406.86914351852</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20960,10 +20416,8 @@
           <t>5022110668</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:50:59</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44406.86873842592</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21027,10 +20481,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:50:12</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44406.86819444445</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21098,10 +20550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:45</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44406.86788194445</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21165,10 +20615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:13</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44406.86751157408</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21232,10 +20680,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:48:54</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44406.86729166667</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21299,10 +20745,8 @@
           <t>5021660440</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:48:17</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44406.86686342592</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21366,10 +20810,8 @@
           <t>5021708048</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:48:07</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44406.86674768518</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21437,10 +20879,8 @@
           <t>5021911193</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:48:02</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44406.86668981481</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21516,10 +20956,8 @@
           <t>5021897423</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:47:35</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44406.86637731481</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21595,10 +21033,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:47:00</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44406.86597222222</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21674,10 +21110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:59</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44406.86596064815</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21745,10 +21179,8 @@
           <t>5022058571</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:45:24</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44406.86486111111</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21812,10 +21244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:53</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44406.86450231481</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21883,10 +21313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44406.86439814815</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21962,10 +21390,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:23</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44406.86415509259</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22033,10 +21459,8 @@
           <t>5022052854</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:14</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44406.86405092593</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22096,10 +21520,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:55</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44406.86383101852</v>
       </c>
       <c r="I298" t="n">
         <v>5</v>
@@ -22171,10 +21593,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:52</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44406.8637962963</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22242,10 +21662,8 @@
           <t>5022046741</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:24</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44406.86347222222</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22317,10 +21735,8 @@
           <t>5021660440</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:11</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44406.86332175926</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22397,10 +21813,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:07</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44406.86327546297</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22468,10 +21882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:55</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44406.86313657407</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22535,10 +21947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:55</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44406.86313657407</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22606,10 +22016,8 @@
           <t>5022039346</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:52</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44406.86310185185</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22685,10 +22093,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:51</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44406.86309027778</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22764,10 +22170,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:25</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44406.86140046296</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22835,10 +22239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44406.86118055556</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22906,10 +22308,8 @@
           <t>5021847213</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:02</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44406.86113425926</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22977,10 +22377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:49</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44406.86028935185</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23056,10 +22454,8 @@
           <t>5022002165</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:10</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44406.85983796296</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23131,10 +22527,8 @@
           <t>5022006630</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:03</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44406.85975694445</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23210,10 +22604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44406.85957175926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23285,10 +22677,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44406.8594212963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23369,10 +22759,8 @@
           <t>5021994430</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44406.85921296296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23448,10 +22836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:14</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44406.85918981482</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23523,10 +22909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:08</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44406.85912037037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23598,10 +22982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:07</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44406.8591087963</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23673,10 +23055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:36:21</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44406.85857638889</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23740,10 +23120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:35:37</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44406.85806712963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23811,10 +23189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:35:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44406.85778935185</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23890,10 +23266,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:34:46</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44406.85747685185</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23969,10 +23343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:34:28</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44406.85726851852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24067,10 +23439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:34:15</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44406.85711805556</v>
       </c>
       <c r="I324" t="n">
         <v>28</v>
@@ -24146,10 +23516,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:57</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44406.85690972222</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24213,10 +23581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:13</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44406.85640046297</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24288,10 +23654,8 @@
           <t>5021931507</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:26</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44406.85585648148</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24359,10 +23723,8 @@
           <t>5021752226</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:13</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44406.85570601852</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24434,10 +23796,8 @@
           <t>5021762388</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:28</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44406.85518518519</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24509,10 +23869,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:43</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44406.85466435185</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24584,10 +23942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:40</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44406.85462962963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24651,10 +24007,8 @@
           <t>5021718795</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:40</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44406.85462962963</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24722,10 +24076,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:21</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44406.85440972223</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24797,10 +24149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:24</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44406.85375</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24876,10 +24226,8 @@
           <t>5021936320</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:08</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44406.85356481482</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24947,10 +24295,8 @@
           <t>5021931627</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:22</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44406.85303240741</v>
       </c>
       <c r="I336" t="n">
         <v>3</v>
@@ -25014,10 +24360,8 @@
           <t>5021931507</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:19</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44406.85299768519</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25081,10 +24425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:14</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44406.85293981482</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25152,10 +24494,8 @@
           <t>5021883346</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:43</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44406.85258101852</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25219,10 +24559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:22</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44406.85233796296</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25299,10 +24637,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:27</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44406.85170138889</v>
       </c>
       <c r="I341" t="n">
         <v>8</v>
@@ -25378,10 +24714,8 @@
           <t>5021911193</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:13</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44406.85153935185</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25457,10 +24791,8 @@
           <t>5021915174</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:57</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44406.85135416667</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25528,10 +24860,8 @@
           <t>5021883346</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:51</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44406.85128472222</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25607,10 +24937,8 @@
           <t>5021904044</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:29</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44406.85103009259</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25682,10 +25010,8 @@
           <t>5021894185</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:53</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44406.85061342592</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25753,10 +25079,8 @@
           <t>5021897423</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:44</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44406.85050925926</v>
       </c>
       <c r="I347" t="n">
         <v>6</v>
@@ -25824,10 +25148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:06</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44406.85006944444</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25904,10 +25226,8 @@
           <t>5021883346</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:55</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44406.84994212963</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25978,10 +25298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44406.84980324074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26049,10 +25367,8 @@
           <t>5021883391</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44406.84938657407</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26128,10 +25444,8 @@
           <t>5021883346</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44406.849375</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26207,10 +25521,8 @@
           <t>5021887080</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:49</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44406.84917824074</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26278,10 +25590,8 @@
           <t>5021847213</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:19</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44406.84883101852</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26349,10 +25659,8 @@
           <t>5021881181</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:13</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44406.84876157407</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26420,10 +25728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:56</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44406.84856481481</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26487,10 +25793,8 @@
           <t>5021880264</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:51</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44406.84850694444</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26566,10 +25870,8 @@
           <t>5021869722</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:34</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44406.84831018518</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26645,10 +25947,8 @@
           <t>5021847213</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44406.848125</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26716,10 +26016,8 @@
           <t>5021863849</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:16</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44406.84810185185</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26795,10 +26093,8 @@
           <t>5021868436</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44406.84800925926</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26867,10 +26163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:42</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44406.84770833333</v>
       </c>
       <c r="I362" t="n">
         <v>15</v>
@@ -26942,10 +26236,8 @@
           <t>5021870197</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44406.8474074074</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27021,10 +26313,8 @@
           <t>5021859566</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:02</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44406.84724537037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27092,10 +26382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:00</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44406.84722222222</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27167,10 +26455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:59</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44406.84721064815</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27242,10 +26528,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:09</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44406.84663194444</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27309,10 +26593,8 @@
           <t>5021847213</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:36</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44406.84625</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27380,10 +26662,8 @@
           <t>5021846812</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:26</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44406.84613425926</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27451,10 +26731,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:18</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44406.84604166666</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27514,10 +26792,8 @@
           <t>5021844527</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:06</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44406.84590277778</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27585,10 +26861,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:39</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44406.84559027778</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27652,10 +26926,8 @@
           <t>5021786241</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:59</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44406.84512731482</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27731,10 +27003,8 @@
           <t>5021811912</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:48</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44406.845</v>
       </c>
       <c r="I374" t="n">
         <v>5</v>
@@ -27798,10 +27068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:41</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44406.84491898148</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27873,10 +27141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:22</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44406.84469907408</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27952,10 +27218,8 @@
           <t>5021829791</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:19</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44406.84466435185</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28031,10 +27295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:16</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44406.84462962963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28110,10 +27372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:15</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44406.84461805555</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28181,10 +27441,8 @@
           <t>5021738820</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:59</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44406.84443287037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28256,10 +27514,8 @@
           <t>5021823170</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:41</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44406.84422453704</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28335,10 +27591,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:20</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44406.84398148148</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28406,10 +27660,8 @@
           <t>5021821710</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:08</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44406.84384259259</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28473,10 +27725,8 @@
           <t>5021818395</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:01</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44406.84376157408</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28552,10 +27802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:30</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44406.84340277778</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28619,10 +27867,8 @@
           <t>5021699023</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:26</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44406.84335648148</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28698,10 +27944,8 @@
           <t>5021814218</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:23</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44406.84332175926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28769,10 +28013,8 @@
           <t>5021816737</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:21</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44406.84329861111</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28838,10 +28080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:20</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44406.84328703704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28917,10 +28157,8 @@
           <t>5021813881</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:16</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44406.84324074074</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28988,10 +28226,8 @@
           <t>5021795199</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:06</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44406.843125</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29063,10 +28299,8 @@
           <t>5021813318</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:04</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44406.84310185185</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29130,10 +28364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:02</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44406.84307870371</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29201,10 +28433,8 @@
           <t>5021813138</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:00</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44406.84305555555</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29280,10 +28510,8 @@
           <t>5021813030</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:58</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44406.84303240741</v>
       </c>
       <c r="I395" t="n">
         <v>5</v>
@@ -29347,10 +28575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:53</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44406.84297453704</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29422,10 +28648,8 @@
           <t>5021811912</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:34</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44406.84275462963</v>
       </c>
       <c r="I397" t="n">
         <v>5</v>
@@ -29493,10 +28717,8 @@
           <t>5021752226</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:30</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44406.84270833333</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29560,10 +28782,8 @@
           <t>5021804431</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:26</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44406.84266203704</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29635,10 +28855,8 @@
           <t>5021806234</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:03</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44406.84239583334</v>
       </c>
       <c r="I400" t="n">
         <v>30</v>
@@ -29710,10 +28928,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:46</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44406.84219907408</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29777,10 +28993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:25</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44406.84126157407</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29852,10 +29066,8 @@
           <t>5021795453</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:22</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44406.84122685185</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29923,10 +29135,8 @@
           <t>5021795199</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:16</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44406.84115740741</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29990,10 +29200,8 @@
           <t>5021649262</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:13</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44406.84112268518</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30053,10 +29261,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:13</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44406.84112268518</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30132,10 +29338,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:50</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44406.84085648148</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30196,10 +29400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:18</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44406.84048611111</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30271,10 +29473,8 @@
           <t>5021778801</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:18</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44406.84048611111</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30346,10 +29546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:17</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44406.84047453704</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30417,10 +29615,8 @@
           <t>5021786241</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:12</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44406.84041666667</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30496,10 +29692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:50</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44406.84016203704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30563,10 +29757,8 @@
           <t>5021777454</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:48</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44406.84013888889</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30642,10 +29834,8 @@
           <t>5021724455</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:41</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44406.84005787037</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30721,10 +29911,8 @@
           <t>5021769079</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:21</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44406.83982638889</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30796,10 +29984,8 @@
           <t>5021718795</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:01</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44406.8395949074</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30863,10 +30049,8 @@
           <t>5021766248</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:46</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44406.8394212963</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30943,10 +30127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:39</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44406.83934027778</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31022,10 +30204,8 @@
           <t>5021766248</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:14</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44406.83905092593</v>
       </c>
       <c r="I419" t="n">
         <v>4</v>
@@ -31097,10 +30277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:11</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44406.8390162037</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31176,10 +30354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:06</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44406.83895833333</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31255,10 +30431,8 @@
           <t>5021762883</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:06</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44406.83895833333</v>
       </c>
       <c r="I422" t="n">
         <v>7</v>
@@ -31334,10 +30508,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:06</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44406.83895833333</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31413,10 +30585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:00</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44406.83888888889</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31492,10 +30662,8 @@
           <t>5021762388</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:56</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44406.8388425926</v>
       </c>
       <c r="I425" t="n">
         <v>41</v>
@@ -31571,10 +30739,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:48</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44406.83875</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31650,10 +30816,8 @@
           <t>5021734742</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:43</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44406.83869212963</v>
       </c>
       <c r="I427" t="n">
         <v>5</v>
@@ -31717,10 +30881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:41</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44406.83866898148</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31788,10 +30950,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:25</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44406.83848379629</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31872,10 +31032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:20</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44406.83842592593</v>
       </c>
       <c r="I430" t="n">
         <v>548</v>
@@ -31951,10 +31109,8 @@
           <t>5021738042</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:13</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44406.83834490741</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32026,10 +31182,8 @@
           <t>5021757877</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:08</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44406.83828703704</v>
       </c>
       <c r="I432" t="n">
         <v>14</v>
@@ -32102,10 +31256,8 @@
           <t>5021691854</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:06</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44406.83826388889</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32173,10 +31325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:02</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44406.83821759259</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32244,10 +31394,8 @@
           <t>5021757506</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:01</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44406.83820601852</v>
       </c>
       <c r="I435" t="n">
         <v>5</v>
@@ -32315,10 +31463,8 @@
           <t>5021752216</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:40</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44406.83796296296</v>
       </c>
       <c r="I436" t="n">
         <v>7</v>
@@ -32395,10 +31541,8 @@
           <t>5021752226</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:40</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44406.83796296296</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32470,10 +31614,8 @@
           <t>5021724455</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:38</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44406.83793981482</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32550,10 +31692,8 @@
           <t>5021724455</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:35</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44406.83790509259</v>
       </c>
       <c r="I439" t="n">
         <v>15</v>
@@ -32625,10 +31765,8 @@
           <t>5021691854</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:13</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44406.83765046296</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32696,10 +31834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:53</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44406.83741898148</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32763,10 +31899,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:35</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44406.83721064815</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32830,10 +31964,8 @@
           <t>5021739053</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:28</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44406.83712962963</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32901,10 +32033,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:25</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44406.83709490741</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32972,10 +32102,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:25</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44406.83709490741</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33039,10 +32167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:24</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44406.83708333333</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33110,10 +32236,8 @@
           <t>5021738820</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:22</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44406.83706018519</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33189,10 +32313,8 @@
           <t>5021745301</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:20</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44406.83703703704</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33264,10 +32386,8 @@
           <t>5021745024</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:14</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44406.83696759259</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33335,10 +32455,8 @@
           <t>5021734742</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:08</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44406.83689814815</v>
       </c>
       <c r="I450" t="n">
         <v>8</v>
@@ -33406,10 +32524,8 @@
           <t>5021738042</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:04</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44406.83685185185</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33473,10 +32589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:51</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44406.83670138889</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33544,10 +32658,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:42</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44406.83659722222</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33615,10 +32727,8 @@
           <t>5021642450</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:11</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44406.83623842592</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33694,10 +32804,8 @@
           <t>5021730967</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44406.83597222222</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33773,10 +32881,8 @@
           <t>5021724455</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44406.83594907408</v>
       </c>
       <c r="I456" t="n">
         <v>11</v>
@@ -33852,10 +32958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:44</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44406.83592592592</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33927,10 +33031,8 @@
           <t>5021730778</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:44</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44406.83592592592</v>
       </c>
       <c r="I458" t="n">
         <v>7</v>
@@ -34006,10 +33108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:26</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44406.83571759259</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34085,10 +33185,8 @@
           <t>5021723539</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:25</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44406.83570601852</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34156,10 +33254,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:15</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44406.83559027778</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34235,10 +33331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:02</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44406.83543981481</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34306,10 +33400,8 @@
           <t>5021718795</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:02</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44406.83543981481</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34373,10 +33465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:50</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44406.83530092592</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34444,10 +33534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:35</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44406.83512731481</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34515,10 +33603,8 @@
           <t>5021721365</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:35</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44406.83512731481</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34594,10 +33680,8 @@
           <t>5021717240</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:29</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44406.83505787037</v>
       </c>
       <c r="I467" t="n">
         <v>6</v>
@@ -34669,10 +33753,8 @@
           <t>5021659324</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:21</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44406.83496527778</v>
       </c>
       <c r="I468" t="n">
         <v>2</v>
@@ -34749,10 +33831,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:17</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44406.83491898148</v>
       </c>
       <c r="I469" t="n">
         <v>7</v>
@@ -34828,10 +33908,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:14</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44406.83488425926</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34903,10 +33981,8 @@
           <t>5021712378</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:03</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44406.83475694444</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34982,10 +34058,8 @@
           <t>5021699810</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:02</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44406.83474537037</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35062,10 +34136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:44</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44406.83453703704</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35133,10 +34205,8 @@
           <t>5021709087</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:43</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44406.83452546296</v>
       </c>
       <c r="I474" t="n">
         <v>4</v>
@@ -35204,10 +34274,8 @@
           <t>5021591326</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:39</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44406.83447916667</v>
       </c>
       <c r="I475" t="n">
         <v>4</v>
@@ -35271,10 +34339,8 @@
           <t>5021708759</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:36</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44406.83444444444</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35342,10 +34408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:35</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44406.83443287037</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35417,10 +34481,8 @@
           <t>5021710941</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:34</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44406.8344212963</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35496,10 +34558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:30</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44406.834375</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35567,10 +34627,8 @@
           <t>5021710581</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:27</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44406.83434027778</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35646,10 +34704,8 @@
           <t>5021708048</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:19</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44406.83424768518</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35721,10 +34777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:17</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44406.83422453704</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35788,10 +34842,8 @@
           <t>5021699810</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:12</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44406.83416666667</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35855,10 +34907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:02</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44406.83405092593</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35934,10 +34984,8 @@
           <t>5021699023</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:57</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44406.83399305555</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36005,10 +35053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:52</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44406.83393518518</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36080,10 +35126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:47</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44406.83387731481</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36151,10 +35195,8 @@
           <t>5021701909</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:33</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44406.83371527777</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36218,10 +35260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:26</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44406.83363425926</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36289,10 +35329,8 @@
           <t>5021697262</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:22</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44406.83358796296</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36356,10 +35394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:20</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44406.83356481481</v>
       </c>
       <c r="I491" t="n">
         <v>8</v>
@@ -36423,10 +35459,8 @@
           <t>5021697182</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:20</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44406.83356481481</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36502,10 +35536,8 @@
           <t>5021659324</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:02</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44406.83335648148</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36577,10 +35609,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:53</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44406.83325231481</v>
       </c>
       <c r="I494" t="n">
         <v>9</v>
@@ -36648,10 +35678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:50</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44406.83321759259</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36727,10 +35755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:37</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44406.83306712963</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36806,10 +35832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:32</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44406.83300925926</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36881,10 +35905,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:24</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44406.83291666667</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36952,10 +35974,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:17</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44406.83283564815</v>
       </c>
       <c r="I499" t="n">
         <v>4</v>
@@ -37023,10 +36043,8 @@
           <t>5021691854</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:01</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44406.83265046297</v>
       </c>
       <c r="I500" t="n">
         <v>3</v>
@@ -37094,10 +36112,8 @@
           <t>5021687481</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:58</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44406.83261574074</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37169,10 +36185,8 @@
           <t>5021687410</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:56</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44406.83259259259</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37240,10 +36254,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:37</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44406.83237268519</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37303,10 +36315,8 @@
           <t>5021649262</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:29</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44406.8322800926</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37380,10 +36390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:55</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44406.83188657407</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37459,10 +36467,8 @@
           <t>5021678792</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:52</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44406.83185185185</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37530,10 +36536,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:45</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44406.83177083333</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37601,10 +36605,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:44</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44406.83175925926</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37668,10 +36670,8 @@
           <t>5021678091</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:36</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44406.83166666667</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37743,10 +36743,8 @@
           <t>5021670542</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:32</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44406.83162037037</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37823,10 +36821,8 @@
           <t>5021649262</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:28</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44406.83157407407</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37893,10 +36889,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:27</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44406.8315625</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37960,10 +36954,8 @@
           <t>5021677626</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:25</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44406.83153935185</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -38037,10 +37029,8 @@
           <t>5021677501</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:22</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44406.83150462963</v>
       </c>
       <c r="I514" t="n">
         <v>10</v>
@@ -38112,10 +37102,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:08</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44406.8313425926</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38179,10 +37167,8 @@
           <t>5021676788</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:06</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44406.83131944444</v>
       </c>
       <c r="I516" t="n">
         <v>14</v>
@@ -38258,10 +37244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:02</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44406.83127314815</v>
       </c>
       <c r="I517" t="n">
         <v>464</v>
@@ -38325,10 +37309,8 @@
           <t>5021659324</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:02</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44406.83127314815</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38405,10 +37387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:00</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44406.83125</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38476,10 +37456,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:53</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44406.83116898148</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38543,10 +37521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:48</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44406.83111111111</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38618,10 +37594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:45</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44406.83107638889</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38698,10 +37672,8 @@
           <t>5021675416</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:34</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44406.83094907407</v>
       </c>
       <c r="I523" t="n">
         <v>5</v>
@@ -38769,10 +37741,8 @@
           <t>5021670542</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:33</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44406.8309375</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38848,10 +37818,8 @@
           <t>5021659324</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:09</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44406.83065972223</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38923,10 +37891,8 @@
           <t>5021653536</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:44</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44406.83037037037</v>
       </c>
       <c r="I526" t="n">
         <v>56</v>
@@ -38994,10 +37960,8 @@
           <t>5021653447</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:42</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44406.83034722223</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39065,10 +38029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:41</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44406.83033564815</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39140,10 +38102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:34</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44406.83025462963</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39219,10 +38179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:26</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44406.83016203704</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39294,10 +38252,8 @@
           <t>5021657147</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:20</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44406.83009259259</v>
       </c>
       <c r="I531" t="n">
         <v>21</v>
@@ -39373,10 +38329,8 @@
           <t>5021660682</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:54</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44406.82979166666</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39448,10 +38402,8 @@
           <t>5021660440</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:49</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44406.82973379629</v>
       </c>
       <c r="I533" t="n">
         <v>3</v>
@@ -39515,10 +38467,8 @@
           <t>5021660401</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:48</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44406.82972222222</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39586,10 +38536,8 @@
           <t>5021650647</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:39</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44406.82961805556</v>
       </c>
       <c r="I535" t="n">
         <v>3</v>
@@ -39657,10 +38605,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:37</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44406.82959490741</v>
       </c>
       <c r="I536" t="n">
         <v>3</v>
@@ -39732,10 +38678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:27</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44406.82947916666</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39811,10 +38755,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:26</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44406.82946759259</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39878,10 +38820,8 @@
           <t>5021614904</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:26</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44406.82946759259</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39957,10 +38897,8 @@
           <t>5021649262</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:26</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44406.82946759259</v>
       </c>
       <c r="I540" t="n">
         <v>7</v>
@@ -40036,10 +38974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:00</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44406.82916666667</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40115,10 +39051,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:47</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44406.8290162037</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40182,10 +39116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:46</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44406.82900462963</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40257,10 +39189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:41</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44406.82894675926</v>
       </c>
       <c r="I544" t="n">
         <v>17</v>
@@ -40336,10 +39266,8 @@
           <t>5021637388</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:28</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44406.82879629629</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40415,10 +39343,8 @@
           <t>5021642450</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:28</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44406.82879629629</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -40490,10 +39416,8 @@
           <t>5021637356</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:27</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44406.82878472222</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40565,10 +39489,8 @@
           <t>5021633683</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:22</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44406.82872685185</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40645,10 +39567,8 @@
           <t>5021642110</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:21</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44406.82871527778</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40721,10 +39641,8 @@
           <t>5021637094</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:21</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44406.82871527778</v>
       </c>
       <c r="I550" t="n">
         <v>7</v>
@@ -40788,10 +39706,8 @@
           <t>5021641865</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:16</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44406.82865740741</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40863,10 +39779,8 @@
           <t>5021614904</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:39</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44406.82822916667</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40930,10 +39844,8 @@
           <t>5021633683</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:34</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44406.8281712963</v>
       </c>
       <c r="I553" t="n">
         <v>4</v>
@@ -41009,10 +39921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:32</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44406.82814814815</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41088,10 +39998,8 @@
           <t>5021633182</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:24</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44406.82805555555</v>
       </c>
       <c r="I555" t="n">
         <v>7</v>
@@ -41167,10 +40075,8 @@
           <t>5021629363</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:20</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44406.82800925926</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41242,10 +40148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:08</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44406.82787037037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41317,10 +40221,8 @@
           <t>5021616948</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:52:00</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44406.82777777778</v>
       </c>
       <c r="I558" t="n">
         <v>3</v>
@@ -41392,10 +40294,8 @@
           <t>5021621452</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:46</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44406.82761574074</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41467,10 +40367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:39</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44406.82753472222</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41542,10 +40440,8 @@
           <t>5021626659</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:19</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44406.82730324074</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41621,10 +40517,8 @@
           <t>5021621628</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:11</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44406.82721064815</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41696,10 +40590,8 @@
           <t>5021621452</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:07</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44406.82716435185</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41775,10 +40667,8 @@
           <t>5021626006</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:51:05</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44406.82714120371</v>
       </c>
       <c r="I564" t="n">
         <v>6</v>
@@ -41891,10 +40781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:58</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44406.82706018518</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -41958,10 +40846,8 @@
           <t>5021620917</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:55</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44406.82702546296</v>
       </c>
       <c r="I566" t="n">
         <v>12</v>
@@ -42036,10 +40922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:47</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44406.82693287037</v>
       </c>
       <c r="I567" t="n">
         <v>3</v>
@@ -42103,10 +40987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:46</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44406.8269212963</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42178,10 +41060,8 @@
           <t>5021614904</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:41</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44406.82686342593</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42245,10 +41125,8 @@
           <t>5021620214</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:39</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44406.82684027778</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42320,10 +41198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:35</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44406.82679398148</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42399,10 +41275,8 @@
           <t>5021609943</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:32</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44406.82675925926</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42470,10 +41344,8 @@
           <t>5021617552</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:31</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44406.82674768518</v>
       </c>
       <c r="I573" t="n">
         <v>2</v>
@@ -42545,10 +41417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:28</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44406.82671296296</v>
       </c>
       <c r="I574" t="n">
         <v>14</v>
@@ -42625,10 +41495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:27</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44406.82670138889</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42700,10 +41568,8 @@
           <t>5021614194</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:26</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44406.82668981481</v>
       </c>
       <c r="I576" t="n">
         <v>2</v>
@@ -42775,10 +41641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:21</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44406.82663194444</v>
       </c>
       <c r="I577" t="n">
         <v>9</v>
@@ -42854,10 +41718,8 @@
           <t>5021616948</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:19</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44406.8266087963</v>
       </c>
       <c r="I578" t="n">
         <v>9</v>
@@ -42929,10 +41791,8 @@
           <t>5021616253</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:06</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44406.82645833334</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43004,10 +41864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:04</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44406.82643518518</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -43075,10 +41933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:04</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44406.82643518518</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -43151,10 +42007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:01</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44406.82640046296</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -43218,10 +42072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:00</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44406.82638888889</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43289,10 +42141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:50:00</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44406.82638888889</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43356,10 +42206,8 @@
           <t>5021608474</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:58</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44406.82636574074</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43431,10 +42279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:54</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44406.82631944444</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43510,10 +42356,8 @@
           <t>5021615299</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:46</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44406.82622685185</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43585,10 +42429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:45</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44406.82621527778</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43656,10 +42498,8 @@
           <t>5021612236</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:43</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44406.82619212963</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43731,10 +42571,8 @@
           <t>5021607734</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:41</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44406.82616898148</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43806,10 +42644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:37</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44406.82612268518</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43885,10 +42721,8 @@
           <t>5021604834</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:36</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44406.82611111111</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -43953,10 +42787,8 @@
           <t>5021604768</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:35</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44406.82609953704</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44028,10 +42860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:26</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44406.82599537037</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44107,10 +42937,8 @@
           <t>5021604313</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:26</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44406.82599537037</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44182,10 +43010,8 @@
           <t>5021606974</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:24</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44406.82597222222</v>
       </c>
       <c r="I596" t="n">
         <v>8</v>
@@ -44257,10 +43083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:13</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44406.82584490741</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44332,10 +43156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:12</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44406.82583333334</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44407,10 +43229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:49:07</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44406.82577546296</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44482,10 +43302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:58</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44406.8256712963</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44549,10 +43367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:56</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44406.82564814815</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44624,10 +43440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:54</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44406.825625</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -44703,10 +43517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:51</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44406.82559027777</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44778,10 +43590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:46</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44406.82553240741</v>
       </c>
       <c r="I604" t="n">
         <v>2</v>
@@ -44857,10 +43667,8 @@
           <t>5021605343</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:46</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44406.82553240741</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44936,10 +43744,8 @@
           <t>5021594923</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:36</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44406.82541666667</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -45015,10 +43821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:34</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44406.82539351852</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45083,10 +43887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:34</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44406.82539351852</v>
       </c>
       <c r="I608" t="n">
         <v>2</v>
@@ -45162,10 +43964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:31</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44406.8253587963</v>
       </c>
       <c r="I609" t="n">
         <v>4</v>
@@ -45241,10 +44041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:29</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44406.82533564815</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45308,10 +44106,8 @@
           <t>5021598815</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:28</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44406.82532407407</v>
       </c>
       <c r="I611" t="n">
         <v>6</v>
@@ -45388,10 +44184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:26</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44406.82530092593</v>
       </c>
       <c r="I612" t="n">
         <v>32</v>
@@ -45463,10 +44257,8 @@
           <t>5021601288</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:23</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44406.8252662037</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45534,10 +44326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:22</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44406.82525462963</v>
       </c>
       <c r="I614" t="n">
         <v>5</v>
@@ -45613,10 +44403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:22</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44406.82525462963</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45692,10 +44480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:20</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44406.82523148148</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45771,10 +44557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:11</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44406.82512731481</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45842,10 +44626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:10</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44406.82511574074</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45913,10 +44695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:07</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44406.82508101852</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45980,10 +44760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:04</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44406.8250462963</v>
       </c>
       <c r="I620" t="n">
         <v>65</v>
@@ -46055,10 +44833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:48:01</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44406.82501157407</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46135,10 +44911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:59</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44406.82498842593</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46211,10 +44985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:57</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44406.82496527778</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46286,10 +45058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:57</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44406.82496527778</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -46361,10 +45131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:51</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44406.82489583334</v>
       </c>
       <c r="I625" t="n">
         <v>6</v>
@@ -46428,10 +45196,8 @@
           <t>5021597000</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:48</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44406.82486111111</v>
       </c>
       <c r="I626" t="n">
         <v>11</v>
@@ -46503,10 +45269,8 @@
           <t>5021589418</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:46</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44406.82483796297</v>
       </c>
       <c r="I627" t="n">
         <v>2</v>
@@ -46582,10 +45346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:39</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44406.82475694444</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46661,10 +45423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:34</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44406.82469907407</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46743,10 +45503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:33</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44406.8246875</v>
       </c>
       <c r="I630" t="n">
         <v>685</v>
@@ -46815,10 +45573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:32</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44406.82467592593</v>
       </c>
       <c r="I631" t="n">
         <v>16</v>
@@ -46894,10 +45650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:27</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44406.82461805556</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46969,10 +45723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:26</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44406.82460648148</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -47048,10 +45800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:26</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44406.82460648148</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -47119,10 +45869,8 @@
           <t>5021591659</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:21</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44406.82454861111</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47190,10 +45938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:20</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44406.82453703704</v>
       </c>
       <c r="I636" t="n">
         <v>120</v>
@@ -47261,10 +46007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:16</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44406.82449074074</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47332,10 +46076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:16</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44406.82449074074</v>
       </c>
       <c r="I638" t="n">
         <v>449</v>
@@ -47411,10 +46153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:15</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44406.82447916667</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -47491,10 +46231,8 @@
           <t>5021591326</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:14</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44406.8244675926</v>
       </c>
       <c r="I640" t="n">
         <v>25</v>
@@ -47571,10 +46309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:07</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44406.82438657407</v>
       </c>
       <c r="I641" t="n">
         <v>4</v>
@@ -47638,10 +46374,8 @@
           <t>5021590905</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:05</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44406.82436342593</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47709,10 +46443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:47:00</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44406.82430555556</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47788,10 +46520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:53</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44406.82422453703</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47855,10 +46585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:50</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44406.82418981481</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
@@ -47918,10 +46646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:50</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44406.82418981481</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47985,10 +46711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:45</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44406.82413194444</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -48064,10 +46788,8 @@
           <t>5021586440</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:45</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44406.82413194444</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -48135,10 +46857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:38</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44406.82405092593</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
@@ -48211,10 +46931,8 @@
           <t>5021583790</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:37</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44406.82403935185</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48290,10 +47008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:35</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44406.8240162037</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48361,10 +47077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:35</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44406.8240162037</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48432,10 +47146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:35</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44406.8240162037</v>
       </c>
       <c r="I653" t="n">
         <v>132</v>
@@ -48511,10 +47223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:31</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44406.8239699074</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48578,10 +47288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:28</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44406.82393518519</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48645,10 +47353,8 @@
           <t>5021585582</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:27</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44406.82392361111</v>
       </c>
       <c r="I656" t="n">
         <v>30</v>
@@ -48720,10 +47426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:18</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44406.82381944444</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48787,10 +47491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:18</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44406.82381944444</v>
       </c>
       <c r="I658" t="n">
         <v>51</v>
@@ -48862,10 +47564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:17</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44406.82380787037</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48938,10 +47638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:15</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44406.82378472222</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -49013,10 +47711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:11</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44406.82373842593</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -49092,10 +47788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:06</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44406.82368055556</v>
       </c>
       <c r="I662" t="n">
         <v>78</v>
@@ -49159,10 +47853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:05</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44406.82366898148</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -49226,10 +47918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:02</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44406.82363425926</v>
       </c>
       <c r="I664" t="n">
         <v>10</v>
@@ -49298,10 +47988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:01</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44406.82362268519</v>
       </c>
       <c r="I665" t="n">
         <v>2021</v>
@@ -49378,10 +48066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:01</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44406.82362268519</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49457,10 +48143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:46:00</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44406.82361111111</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49528,10 +48212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:58</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44406.82358796296</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49603,10 +48285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:53</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44406.8235300926</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49682,10 +48362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:52</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44406.82351851852</v>
       </c>
       <c r="I670" t="n">
         <v>78</v>
@@ -49761,10 +48439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:51</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44406.82350694444</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49841,10 +48517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:50</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44406.82349537037</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
@@ -49916,10 +48590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:48</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44406.82347222222</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49995,10 +48667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:47</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44406.82346064815</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -50074,10 +48744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:47</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44406.82346064815</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -50145,10 +48813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:43</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44406.82341435185</v>
       </c>
       <c r="I676" t="n">
         <v>1</v>
@@ -50212,10 +48878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:41</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44406.8233912037</v>
       </c>
       <c r="I677" t="n">
         <v>1</v>
@@ -50287,10 +48951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:40</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44406.82337962963</v>
       </c>
       <c r="I678" t="n">
         <v>8</v>
@@ -50366,10 +49028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:39</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44406.82336805556</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50441,10 +49101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:39</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44406.82336805556</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50516,10 +49174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:38</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44406.82335648148</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50591,10 +49247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:37</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44406.82334490741</v>
       </c>
       <c r="I682" t="n">
         <v>1</v>
@@ -50666,10 +49320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:36</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44406.82333333333</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50737,10 +49389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:36</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44406.82333333333</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50812,10 +49462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:36</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44406.82333333333</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50891,10 +49539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:34</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44406.82331018519</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50954,10 +49600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:32</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44406.82328703703</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -51025,10 +49669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:30</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44406.82326388889</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -51092,10 +49734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:29</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44406.82325231482</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -51159,10 +49799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:27</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44406.82322916666</v>
       </c>
       <c r="I690" t="n">
         <v>2</v>
@@ -51238,10 +49876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:23</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44406.82318287037</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51313,10 +49949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:22</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44406.8231712963</v>
       </c>
       <c r="I692" t="n">
         <v>1</v>
@@ -51392,10 +50026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:45:17</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44406.82311342593</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
